--- a/biology/Botanique/Chlorogonium/Chlorogonium.xlsx
+++ b/biology/Botanique/Chlorogonium/Chlorogonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorogonium est un genre d'algues vertes de la famille des Haematococcaceae.
 Cette algue est remarquable pour son mutualisme avec les têtards du crapaud d'Amérique, qui grandissent plus vite s'ils sont couverts de Chlorogonium.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques espèces accordées à ce genre :
 Chlorogonium capillatum
